--- a/PROPUESTA FUNDEMERCA (1).xlsx
+++ b/PROPUESTA FUNDEMERCA (1).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEVINSTEVEN\Desktop\UNIVALLE\CONSULTORIA\BUCANERO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KEVINSTEVEN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="procentaje de mortalidad" sheetId="1" r:id="rId1"/>
@@ -312,7 +312,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -332,6 +332,7 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares 2" xfId="2"/>
@@ -616,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A54" activeCellId="4" sqref="A50:XFD50 A51:XFD51 A52:XFD52 A53:XFD53 A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,7 +966,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K4" t="e">
-        <f>('cantidad pollos muertos'!K5/'cantidad inicial'!K4)</f>
+        <f>('cantidad pollos muertos'!K4/'cantidad inicial'!K4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L4" t="e">
@@ -1073,8 +1074,8 @@
         <v>5.1014136447449294E-2</v>
       </c>
       <c r="K5">
-        <f>('cantidad pollos muertos'!K6/'cantidad inicial'!K5)</f>
-        <v>2.389705882352941E-2</v>
+        <f>('cantidad pollos muertos'!K5/'cantidad inicial'!K5)</f>
+        <v>4.4117647058823532E-2</v>
       </c>
       <c r="L5">
         <f>('cantidad pollos muertos'!L5/'cantidad inicial'!L5)</f>
@@ -1181,8 +1182,8 @@
         <v>1.9957983193277309E-2</v>
       </c>
       <c r="K6">
-        <f>('cantidad pollos muertos'!K7/'cantidad inicial'!K6)</f>
-        <v>3.9915966386554619E-2</v>
+        <f>('cantidad pollos muertos'!K6/'cantidad inicial'!K6)</f>
+        <v>1.365546218487395E-2</v>
       </c>
       <c r="L6">
         <f>('cantidad pollos muertos'!L6/'cantidad inicial'!L6)</f>
@@ -1289,8 +1290,8 @@
         <v>3.2786885245901641E-2</v>
       </c>
       <c r="K7">
-        <f>('cantidad pollos muertos'!K8/'cantidad inicial'!K7)</f>
-        <v>2.9411764705882353E-2</v>
+        <f>('cantidad pollos muertos'!K7/'cantidad inicial'!K7)</f>
+        <v>9.3137254901960786E-2</v>
       </c>
       <c r="L7">
         <f>('cantidad pollos muertos'!L7/'cantidad inicial'!L7)</f>
@@ -1397,8 +1398,8 @@
         <v>2.5454545454545455E-2</v>
       </c>
       <c r="K8">
-        <f>('cantidad pollos muertos'!K9/'cantidad inicial'!K8)</f>
-        <v>4.1716807059767345E-2</v>
+        <f>('cantidad pollos muertos'!K8/'cantidad inicial'!K8)</f>
+        <v>1.444043321299639E-2</v>
       </c>
       <c r="L8">
         <f>('cantidad pollos muertos'!L8/'cantidad inicial'!L8)</f>
@@ -1505,8 +1506,8 @@
         <v>3.1885073580939033E-2</v>
       </c>
       <c r="K9">
-        <f>('cantidad pollos muertos'!K10/'cantidad inicial'!K9)</f>
-        <v>3.7140854940434481E-2</v>
+        <f>('cantidad pollos muertos'!K9/'cantidad inicial'!K9)</f>
+        <v>3.6440084092501754E-2</v>
       </c>
       <c r="L9">
         <f>('cantidad pollos muertos'!L9/'cantidad inicial'!L9)</f>
@@ -1613,8 +1614,8 @@
         <v>2.4859943977591035E-2</v>
       </c>
       <c r="K10">
-        <f>('cantidad pollos muertos'!K11/'cantidad inicial'!K10)</f>
-        <v>1.9957983193277309E-2</v>
+        <f>('cantidad pollos muertos'!K10/'cantidad inicial'!K10)</f>
+        <v>3.711484593837535E-2</v>
       </c>
       <c r="L10">
         <f>('cantidad pollos muertos'!L10/'cantidad inicial'!L10)</f>
@@ -1721,8 +1722,8 @@
         <v>3.6203522504892366E-2</v>
       </c>
       <c r="K11">
-        <f>('cantidad pollos muertos'!K12/'cantidad inicial'!K11)</f>
-        <v>3.038427167113494E-2</v>
+        <f>('cantidad pollos muertos'!K11/'cantidad inicial'!K11)</f>
+        <v>5.0938337801608578E-2</v>
       </c>
       <c r="L11">
         <f>('cantidad pollos muertos'!L11/'cantidad inicial'!L11)</f>
@@ -1828,9 +1829,9 @@
         <f>('cantidad pollos muertos'!J12/'cantidad inicial'!J12)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" t="e">
-        <f>('cantidad pollos muertos'!#REF!/'cantidad inicial'!K12)</f>
-        <v>#REF!</v>
+      <c r="K12">
+        <f>('cantidad pollos muertos'!K12/'cantidad inicial'!K12)</f>
+        <v>2.2457067371202115E-2</v>
       </c>
       <c r="L12">
         <f>('cantidad pollos muertos'!L12/'cantidad inicial'!L12)</f>
@@ -3772,21 +3773,21 @@
         <f>('cantidad pollos muertos'!J30/'cantidad inicial'!J30)</f>
         <v>1.5305273664947596E-2</v>
       </c>
-      <c r="K30" t="e">
+      <c r="K30">
         <f>('cantidad pollos muertos'!K30/'cantidad inicial'!K30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L30" t="e">
+        <v>3.110735418427726E-2</v>
+      </c>
+      <c r="L30">
         <f>('cantidad pollos muertos'!L30/'cantidad inicial'!L30)</f>
-        <v>#DIV/0!</v>
+        <v>2.4561978057966267E-3</v>
       </c>
       <c r="M30">
         <f>('cantidad pollos muertos'!M30/'cantidad inicial'!M30)</f>
         <v>4.3407310704960837E-2</v>
       </c>
-      <c r="N30" t="e">
+      <c r="N30">
         <f>('cantidad pollos muertos'!N30/'cantidad inicial'!N30)</f>
-        <v>#DIV/0!</v>
+        <v>4.4392939917988948E-2</v>
       </c>
       <c r="O30" t="e">
         <f>('cantidad pollos muertos'!O30/'cantidad inicial'!O30)</f>
@@ -3796,9 +3797,9 @@
         <f>('cantidad pollos muertos'!P30/'cantidad inicial'!P30)</f>
         <v>6.6830065359477123E-2</v>
       </c>
-      <c r="Q30" t="e">
+      <c r="Q30">
         <f>('cantidad pollos muertos'!Q30/'cantidad inicial'!Q30)</f>
-        <v>#DIV/0!</v>
+        <v>2.1358543417366947E-2</v>
       </c>
       <c r="R30">
         <f>('cantidad pollos muertos'!R30/'cantidad inicial'!R30)</f>
@@ -3812,9 +3813,9 @@
         <f>('cantidad pollos muertos'!T30/'cantidad inicial'!T30)</f>
         <v>3.3986928104575161E-2</v>
       </c>
-      <c r="U30" t="e">
+      <c r="U30">
         <f>('cantidad pollos muertos'!U30/'cantidad inicial'!U30)</f>
-        <v>#DIV/0!</v>
+        <v>4.4444444444444446E-2</v>
       </c>
       <c r="V30">
         <f>('cantidad pollos muertos'!V30/'cantidad inicial'!V30)</f>
@@ -4312,21 +4313,21 @@
         <f>('cantidad pollos muertos'!J35/'cantidad inicial'!J35)</f>
         <v>1.7923571187013865E-2</v>
       </c>
-      <c r="K35" t="e">
+      <c r="K35">
         <f>('cantidad pollos muertos'!K35/'cantidad inicial'!K35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L35" t="e">
+        <v>2.3238925199709513E-2</v>
+      </c>
+      <c r="L35">
         <f>('cantidad pollos muertos'!L35/'cantidad inicial'!L35)</f>
-        <v>#DIV/0!</v>
+        <v>2.9084967320261439E-2</v>
       </c>
       <c r="M35">
         <f>('cantidad pollos muertos'!M35/'cantidad inicial'!M35)</f>
         <v>2.2222222222222223E-2</v>
       </c>
-      <c r="N35" t="e">
+      <c r="N35">
         <f>('cantidad pollos muertos'!N35/'cantidad inicial'!N35)</f>
-        <v>#DIV/0!</v>
+        <v>9.4658553076402974E-3</v>
       </c>
       <c r="O35" t="e">
         <f>('cantidad pollos muertos'!O35/'cantidad inicial'!O35)</f>
@@ -4336,9 +4337,9 @@
         <f>('cantidad pollos muertos'!P35/'cantidad inicial'!P35)</f>
         <v>1.4705882352941176E-2</v>
       </c>
-      <c r="Q35" t="e">
+      <c r="Q35">
         <f>('cantidad pollos muertos'!Q35/'cantidad inicial'!Q35)</f>
-        <v>#DIV/0!</v>
+        <v>1.9607843137254902E-2</v>
       </c>
       <c r="R35">
         <f>('cantidad pollos muertos'!R35/'cantidad inicial'!R35)</f>
@@ -4352,9 +4353,9 @@
         <f>('cantidad pollos muertos'!T35/'cantidad inicial'!T35)</f>
         <v>1.6013071895424835E-2</v>
       </c>
-      <c r="U35" t="e">
+      <c r="U35">
         <f>('cantidad pollos muertos'!U35/'cantidad inicial'!U35)</f>
-        <v>#DIV/0!</v>
+        <v>2.4836601307189541E-2</v>
       </c>
       <c r="V35">
         <f>('cantidad pollos muertos'!V35/'cantidad inicial'!V35)</f>
@@ -5905,8 +5906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8041,12 +8042,23 @@
       <c r="J30">
         <v>6011</v>
       </c>
-      <c r="K30" s="2"/>
+      <c r="K30" s="11">
+        <v>5915</v>
+      </c>
+      <c r="L30" s="1">
+        <v>6107</v>
+      </c>
       <c r="M30" s="4">
         <v>6128</v>
       </c>
+      <c r="N30" s="1">
+        <v>5609</v>
+      </c>
       <c r="P30" s="7">
         <v>6120</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>5712</v>
       </c>
       <c r="R30" s="3">
         <v>5712</v>
@@ -8055,6 +8067,9 @@
       <c r="T30" s="7">
         <v>6120</v>
       </c>
+      <c r="U30" s="1">
+        <v>6120</v>
+      </c>
       <c r="V30" s="8">
         <v>6120</v>
       </c>
@@ -8402,19 +8417,32 @@
       <c r="J35">
         <v>2957</v>
       </c>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="K35" s="11">
+        <v>2754</v>
+      </c>
+      <c r="L35" s="11">
+        <v>3060</v>
+      </c>
       <c r="M35" s="4">
         <v>3060</v>
       </c>
+      <c r="N35" s="1">
+        <v>2958</v>
+      </c>
       <c r="P35" s="7">
         <v>3060</v>
       </c>
+      <c r="Q35" s="1">
+        <v>2856</v>
+      </c>
       <c r="R35" s="3">
         <v>2856</v>
       </c>
       <c r="S35" s="7"/>
       <c r="T35" s="7">
+        <v>3060</v>
+      </c>
+      <c r="U35" s="1">
         <v>3060</v>
       </c>
       <c r="V35" s="8">
@@ -9495,8 +9523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9745,6 +9773,7 @@
       <c r="B4" t="s">
         <v>74</v>
       </c>
+      <c r="K4" s="4"/>
       <c r="L4" s="2"/>
       <c r="M4" s="4">
         <v>389</v>
@@ -11629,11 +11658,23 @@
       <c r="J30">
         <v>92</v>
       </c>
+      <c r="K30">
+        <v>184</v>
+      </c>
+      <c r="L30">
+        <v>15</v>
+      </c>
       <c r="M30" s="4">
         <v>266</v>
       </c>
+      <c r="N30">
+        <v>249</v>
+      </c>
       <c r="P30" s="8">
         <v>409</v>
+      </c>
+      <c r="Q30">
+        <v>122</v>
       </c>
       <c r="R30" s="4">
         <v>282</v>
@@ -11642,6 +11683,9 @@
       <c r="T30" s="8">
         <v>208</v>
       </c>
+      <c r="U30">
+        <v>272</v>
+      </c>
       <c r="V30" s="8">
         <v>114</v>
       </c>
@@ -11989,11 +12033,23 @@
       <c r="J35">
         <v>53</v>
       </c>
+      <c r="K35">
+        <v>64</v>
+      </c>
+      <c r="L35">
+        <v>89</v>
+      </c>
       <c r="M35" s="4">
         <v>68</v>
       </c>
+      <c r="N35">
+        <v>28</v>
+      </c>
       <c r="P35" s="8">
         <v>45</v>
+      </c>
+      <c r="Q35">
+        <v>56</v>
       </c>
       <c r="R35" s="4">
         <v>106</v>
@@ -12001,6 +12057,9 @@
       <c r="S35" s="8"/>
       <c r="T35" s="8">
         <v>49</v>
+      </c>
+      <c r="U35">
+        <v>76</v>
       </c>
       <c r="V35" s="8">
         <v>70</v>
